--- a/Documentation/Test plan.xlsx
+++ b/Documentation/Test plan.xlsx
@@ -17,14 +17,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="100">
   <si>
     <t>Device:</t>
   </si>
   <si>
-    <t>Hardware and System Integration Testing</t>
-  </si>
-  <si>
     <t>TLE4476D</t>
   </si>
   <si>
@@ -184,18 +181,6 @@
     <t>Links a laptop, Sightline and controller board</t>
   </si>
   <si>
-    <t>Software</t>
-  </si>
-  <si>
-    <t>Accuracy:</t>
-  </si>
-  <si>
-    <t>Safety</t>
-  </si>
-  <si>
-    <t>Safety features:</t>
-  </si>
-  <si>
     <t>RTx Controller Board</t>
   </si>
   <si>
@@ -203,6 +188,135 @@
   </si>
   <si>
     <t>Functionality:</t>
+  </si>
+  <si>
+    <t>Timer Callbacks:</t>
+  </si>
+  <si>
+    <t>Control Loop timer</t>
+  </si>
+  <si>
+    <t>Callback function begins</t>
+  </si>
+  <si>
+    <t>SPI:</t>
+  </si>
+  <si>
+    <t>ADC Conversion timer</t>
+  </si>
+  <si>
+    <t>ADC DONE interrupt</t>
+  </si>
+  <si>
+    <t>SPI read</t>
+  </si>
+  <si>
+    <t>Interrupt callback begins</t>
+  </si>
+  <si>
+    <t>SPI read fetches ADC data</t>
+  </si>
+  <si>
+    <t>Hardware, Firmware and System Integration Testing</t>
+  </si>
+  <si>
+    <t>RTx Controller Firmware</t>
+  </si>
+  <si>
+    <t>Ethernet:</t>
+  </si>
+  <si>
+    <t>Receive from Manual</t>
+  </si>
+  <si>
+    <t>Receive from SLA</t>
+  </si>
+  <si>
+    <t>Send to Manual</t>
+  </si>
+  <si>
+    <t>Manual Packets Received</t>
+  </si>
+  <si>
+    <t>SLA Packets Received</t>
+  </si>
+  <si>
+    <t>Manual Packets Sent</t>
+  </si>
+  <si>
+    <t>PWM Outputs to GMD</t>
+  </si>
+  <si>
+    <t>Digital Outputs:</t>
+  </si>
+  <si>
+    <t>Enable</t>
+  </si>
+  <si>
+    <t>Watchdog</t>
+  </si>
+  <si>
+    <t>Enable Outputs to GMD</t>
+  </si>
+  <si>
+    <t>Watchdog Outputs to GMD</t>
+  </si>
+  <si>
+    <t>Manual Control Box Firmware</t>
+  </si>
+  <si>
+    <t>ADC:</t>
+  </si>
+  <si>
+    <t>ADC Conversion Callback</t>
+  </si>
+  <si>
+    <t>ADC Results</t>
+  </si>
+  <si>
+    <t>ADC results in range</t>
+  </si>
+  <si>
+    <t>Send to RTx</t>
+  </si>
+  <si>
+    <t>Receive from RTx</t>
+  </si>
+  <si>
+    <t>RTx Packets Received</t>
+  </si>
+  <si>
+    <t>LED Outputs:</t>
+  </si>
+  <si>
+    <t>Neutral</t>
+  </si>
+  <si>
+    <t>Mode</t>
+  </si>
+  <si>
+    <t>Aux</t>
+  </si>
+  <si>
+    <t>Neutral LEDs Operate</t>
+  </si>
+  <si>
+    <t>Mode LEDs Operate</t>
+  </si>
+  <si>
+    <t>Aux LEDs Operate</t>
+  </si>
+  <si>
+    <t>Digital Inputs:</t>
+  </si>
+  <si>
+    <t>Enable State Correct</t>
+  </si>
+  <si>
+    <t>Mode State Correct</t>
+  </si>
+  <si>
+    <t>Aux State Correct</t>
   </si>
 </sst>
 </file>
@@ -296,7 +410,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -313,47 +427,44 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -649,10 +760,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:G49"/>
+  <dimension ref="B1:G76"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="B77" sqref="B77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -666,409 +777,660 @@
   <sheetData>
     <row r="1" spans="2:7" ht="7.5" customHeight="1"/>
     <row r="2" spans="2:7" ht="38.25" customHeight="1">
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+    </row>
+    <row r="3" spans="2:7" ht="15.75">
+      <c r="B3" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+    </row>
+    <row r="4" spans="2:7">
+      <c r="B4" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7">
+      <c r="B5" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-    </row>
-    <row r="3" spans="2:7" ht="15.75">
-      <c r="B3" s="19" t="s">
+      <c r="C5" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="8"/>
+    </row>
+    <row r="6" spans="2:7">
+      <c r="B6" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="8"/>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="B7" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="8"/>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="2:7">
+      <c r="B9" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="8"/>
+    </row>
+    <row r="10" spans="2:7">
+      <c r="B10" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-    </row>
-    <row r="4" spans="2:7">
-      <c r="B4" s="7" t="s">
+      <c r="D10" s="8"/>
+    </row>
+    <row r="11" spans="2:7" s="5" customFormat="1" ht="15.75">
+      <c r="B11" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+    </row>
+    <row r="12" spans="2:7">
+      <c r="B12" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="9" t="s">
+      <c r="C12" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7">
+      <c r="B13" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="8"/>
+    </row>
+    <row r="14" spans="2:7">
+      <c r="B14" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="8"/>
+    </row>
+    <row r="15" spans="2:7">
+      <c r="B15" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="8"/>
+    </row>
+    <row r="16" spans="2:7">
+      <c r="B16" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="8"/>
+    </row>
+    <row r="17" spans="2:4" s="5" customFormat="1" ht="15.75">
+      <c r="B17" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18" s="6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="2:7">
-      <c r="B5" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="9"/>
-    </row>
-    <row r="6" spans="2:7">
-      <c r="B6" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="9"/>
-    </row>
-    <row r="7" spans="2:7">
-      <c r="B7" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="9"/>
-    </row>
-    <row r="8" spans="2:7">
-      <c r="B8" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="11" t="s">
+      <c r="C18" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="9"/>
-      <c r="G8" s="2"/>
-    </row>
-    <row r="9" spans="2:7">
-      <c r="B9" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="9"/>
-    </row>
-    <row r="10" spans="2:7">
-      <c r="B10" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="11" t="s">
+    </row>
+    <row r="19" spans="2:4">
+      <c r="B19" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="9"/>
-    </row>
-    <row r="11" spans="2:7" s="5" customFormat="1" ht="15.75">
-      <c r="B11" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-    </row>
-    <row r="12" spans="2:7">
-      <c r="B12" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7">
-      <c r="B13" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="11" t="s">
+      <c r="C19" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="8"/>
+    </row>
+    <row r="20" spans="2:4">
+      <c r="B20" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="8"/>
+    </row>
+    <row r="21" spans="2:4">
+      <c r="B21" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="8"/>
+    </row>
+    <row r="22" spans="2:4">
+      <c r="B22" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="8"/>
+    </row>
+    <row r="23" spans="2:4">
+      <c r="B23" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" s="8"/>
+    </row>
+    <row r="24" spans="2:4">
+      <c r="B24" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" s="8"/>
+    </row>
+    <row r="25" spans="2:4">
+      <c r="B25" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25" s="8"/>
+    </row>
+    <row r="26" spans="2:4">
+      <c r="B26" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26" s="8"/>
+    </row>
+    <row r="27" spans="2:4">
+      <c r="B27" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27" s="8"/>
+    </row>
+    <row r="28" spans="2:4">
+      <c r="B28" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D28" s="8"/>
+    </row>
+    <row r="29" spans="2:4" s="5" customFormat="1" ht="15.75">
+      <c r="B29" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+    </row>
+    <row r="30" spans="2:4">
+      <c r="B30" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4">
+      <c r="B31" s="14"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="16"/>
+    </row>
+    <row r="32" spans="2:4" ht="15.75">
+      <c r="B32" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+    </row>
+    <row r="33" spans="2:4">
+      <c r="B33" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C33" s="10"/>
+      <c r="D33" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4">
+      <c r="B34" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C34" s="10"/>
+      <c r="D34" s="8"/>
+    </row>
+    <row r="35" spans="2:4">
+      <c r="B35" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C35" s="10"/>
+      <c r="D35" s="8"/>
+    </row>
+    <row r="36" spans="2:4">
+      <c r="B36" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C36" s="10"/>
+      <c r="D36" s="8"/>
+    </row>
+    <row r="37" spans="2:4" s="5" customFormat="1" ht="15.75">
+      <c r="B37" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C37" s="10"/>
+      <c r="D37" s="8"/>
+    </row>
+    <row r="38" spans="2:4">
+      <c r="B38" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C38" s="10"/>
+      <c r="D38" s="8"/>
+    </row>
+    <row r="39" spans="2:4">
+      <c r="B39" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C39" s="10"/>
+      <c r="D39" s="8"/>
+    </row>
+    <row r="40" spans="2:4" ht="15.75">
+      <c r="B40" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
+    </row>
+    <row r="41" spans="2:4" s="5" customFormat="1" ht="15.75">
+      <c r="B41" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C41" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="D13" s="9"/>
-    </row>
-    <row r="14" spans="2:7">
-      <c r="B14" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D14" s="9"/>
-    </row>
-    <row r="15" spans="2:7">
-      <c r="B15" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D15" s="9"/>
-    </row>
-    <row r="16" spans="2:7">
-      <c r="B16" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D16" s="9"/>
-    </row>
-    <row r="17" spans="2:4" s="5" customFormat="1" ht="15.75">
-      <c r="B17" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-    </row>
-    <row r="18" spans="2:4">
-      <c r="B18" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4">
-      <c r="B19" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="C19" s="11" t="s">
+      <c r="D41" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4">
+      <c r="B42" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D42" s="8"/>
+    </row>
+    <row r="43" spans="2:4">
+      <c r="B43" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="9"/>
-    </row>
-    <row r="20" spans="2:4">
-      <c r="B20" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D20" s="9"/>
-    </row>
-    <row r="21" spans="2:4">
-      <c r="B21" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D21" s="9"/>
-    </row>
-    <row r="22" spans="2:4">
-      <c r="B22" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D22" s="9"/>
-    </row>
-    <row r="23" spans="2:4">
-      <c r="B23" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D23" s="9"/>
-    </row>
-    <row r="24" spans="2:4">
-      <c r="B24" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D24" s="9"/>
-    </row>
-    <row r="25" spans="2:4">
-      <c r="B25" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" s="9"/>
-    </row>
-    <row r="26" spans="2:4">
-      <c r="B26" s="12" t="s">
+      <c r="C43" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D43" s="8"/>
+    </row>
+    <row r="44" spans="2:4" s="5" customFormat="1" ht="15.75">
+      <c r="B44" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="C44" s="17"/>
+      <c r="D44" s="17"/>
+    </row>
+    <row r="45" spans="2:4">
+      <c r="B45" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D45" s="8"/>
+    </row>
+    <row r="46" spans="2:4">
+      <c r="B46" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D46" s="8"/>
+    </row>
+    <row r="47" spans="2:4">
+      <c r="B47" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D47" s="8"/>
+    </row>
+    <row r="48" spans="2:4">
+      <c r="B48" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D48" s="8"/>
+    </row>
+    <row r="49" spans="2:4">
+      <c r="B49" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D49" s="8"/>
+    </row>
+    <row r="50" spans="2:4">
+      <c r="B50" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="D50" s="8"/>
+    </row>
+    <row r="51" spans="2:4">
+      <c r="B51" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D51" s="8"/>
+    </row>
+    <row r="52" spans="2:4">
+      <c r="B52" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D52" s="8"/>
+    </row>
+    <row r="53" spans="2:4">
+      <c r="B53" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D53" s="8"/>
+    </row>
+    <row r="54" spans="2:4">
+      <c r="B54" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D54" s="8"/>
+    </row>
+    <row r="55" spans="2:4">
+      <c r="B55" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C55" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D55" s="8"/>
+    </row>
+    <row r="56" spans="2:4">
+      <c r="B56" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C26" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D26" s="9"/>
-    </row>
-    <row r="27" spans="2:4">
-      <c r="B27" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D27" s="9"/>
-    </row>
-    <row r="28" spans="2:4">
-      <c r="B28" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D28" s="9"/>
-    </row>
-    <row r="29" spans="2:4" s="5" customFormat="1" ht="15.75">
-      <c r="B29" s="19" t="s">
+      <c r="C56" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D56" s="8"/>
+    </row>
+    <row r="57" spans="2:4">
+      <c r="B57" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C57" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D57" s="8"/>
+    </row>
+    <row r="58" spans="2:4">
+      <c r="B58" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C58" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="D58" s="8"/>
+    </row>
+    <row r="59" spans="2:4" ht="15.75">
+      <c r="B59" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="C59" s="17"/>
+      <c r="D59" s="17"/>
+    </row>
+    <row r="60" spans="2:4">
+      <c r="B60" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C60" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D60" s="8"/>
+    </row>
+    <row r="61" spans="2:4">
+      <c r="B61" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C61" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
-    </row>
-    <row r="30" spans="2:4">
-      <c r="B30" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4">
-      <c r="B31" s="15"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="17"/>
-    </row>
-    <row r="32" spans="2:4" ht="15.75">
-      <c r="B32" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="C32" s="19"/>
-      <c r="D32" s="19"/>
-    </row>
-    <row r="33" spans="2:4">
-      <c r="B33" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C33" s="11"/>
-      <c r="D33" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4">
-      <c r="B34" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="C34" s="11"/>
-      <c r="D34" s="9"/>
-    </row>
-    <row r="35" spans="2:4">
-      <c r="B35" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="C35" s="11"/>
-      <c r="D35" s="9"/>
-    </row>
-    <row r="36" spans="2:4">
-      <c r="B36" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="C36" s="11"/>
-      <c r="D36" s="9"/>
-    </row>
-    <row r="37" spans="2:4" s="5" customFormat="1" ht="15.75">
-      <c r="B37" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="C37" s="11"/>
-      <c r="D37" s="9"/>
-    </row>
-    <row r="38" spans="2:4">
-      <c r="B38" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C38" s="11"/>
-      <c r="D38" s="9"/>
-    </row>
-    <row r="39" spans="2:4">
-      <c r="B39" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C39" s="11"/>
-      <c r="D39" s="9"/>
-    </row>
-    <row r="40" spans="2:4" ht="15.75">
-      <c r="B40" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="C40" s="19"/>
-      <c r="D40" s="19"/>
-    </row>
-    <row r="41" spans="2:4" s="5" customFormat="1" ht="15.75">
-      <c r="B41" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C41" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="D41" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="42" spans="2:4">
-      <c r="B42" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="C42" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="D42" s="9"/>
-    </row>
-    <row r="43" spans="2:4">
-      <c r="B43" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C43" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="D43" s="9"/>
-    </row>
-    <row r="44" spans="2:4" s="5" customFormat="1" ht="15.75">
-      <c r="B44" s="19" t="s">
+      <c r="D61" s="8"/>
+    </row>
+    <row r="62" spans="2:4">
+      <c r="B62" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C62" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D62" s="8"/>
+    </row>
+    <row r="63" spans="2:4">
+      <c r="B63" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C63" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="C44" s="19"/>
-      <c r="D44" s="19"/>
-    </row>
-    <row r="45" spans="2:4">
-      <c r="B45" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C45" s="11"/>
-      <c r="D45" s="9"/>
-    </row>
-    <row r="46" spans="2:4">
-      <c r="B46" s="18"/>
-      <c r="C46" s="16"/>
-      <c r="D46" s="17"/>
-    </row>
-    <row r="47" spans="2:4" ht="15.75">
-      <c r="B47" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="C47" s="19"/>
-      <c r="D47" s="19"/>
-    </row>
-    <row r="48" spans="2:4">
-      <c r="B48" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="C48" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="D48" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="49" spans="2:4">
-      <c r="B49" s="18"/>
-      <c r="C49" s="16"/>
-      <c r="D49" s="17"/>
+      <c r="D63" s="8"/>
+    </row>
+    <row r="64" spans="2:4">
+      <c r="B64" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="C64" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D64" s="8"/>
+    </row>
+    <row r="65" spans="2:4">
+      <c r="B65" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="C65" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="D65" s="8"/>
+    </row>
+    <row r="66" spans="2:4">
+      <c r="B66" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C66" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D66" s="8"/>
+    </row>
+    <row r="67" spans="2:4">
+      <c r="B67" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C67" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="D67" s="8"/>
+    </row>
+    <row r="68" spans="2:4">
+      <c r="B68" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C68" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D68" s="8"/>
+    </row>
+    <row r="69" spans="2:4">
+      <c r="B69" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C69" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D69" s="8"/>
+    </row>
+    <row r="70" spans="2:4">
+      <c r="B70" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="C70" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="D70" s="8"/>
+    </row>
+    <row r="71" spans="2:4">
+      <c r="B71" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C71" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="D71" s="8"/>
+    </row>
+    <row r="72" spans="2:4">
+      <c r="B72" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="C72" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="D72" s="8"/>
+    </row>
+    <row r="73" spans="2:4">
+      <c r="B73" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C73" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D73" s="8"/>
+    </row>
+    <row r="74" spans="2:4">
+      <c r="B74" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C74" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="D74" s="8"/>
+    </row>
+    <row r="75" spans="2:4">
+      <c r="B75" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C75" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="D75" s="8"/>
+    </row>
+    <row r="76" spans="2:4">
+      <c r="B76" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="C76" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="D76" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B59:D59"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B32:D32"/>
     <mergeCell ref="B40:D40"/>

--- a/Documentation/Test plan.xlsx
+++ b/Documentation/Test plan.xlsx
@@ -11,13 +11,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$18:$D$18</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$B$2:$D$76</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="100">
   <si>
     <t>Device:</t>
   </si>
@@ -762,8 +763,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:G76"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="B77" sqref="B77"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G73" sqref="G73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1146,10 +1147,12 @@
       <c r="B45" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C45" s="10" t="s">
+      <c r="C45" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="D45" s="8"/>
+      <c r="D45" s="8" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="46" spans="2:4">
       <c r="B46" s="11" t="s">
@@ -1173,7 +1176,7 @@
       <c r="B48" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="C48" s="10" t="s">
+      <c r="C48" s="13" t="s">
         <v>55</v>
       </c>
       <c r="D48" s="8"/>
@@ -1200,7 +1203,7 @@
       <c r="B51" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C51" s="10" t="s">
+      <c r="C51" s="13" t="s">
         <v>55</v>
       </c>
       <c r="D51" s="8"/>
@@ -1236,7 +1239,7 @@
       <c r="B55" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="C55" s="10" t="s">
+      <c r="C55" s="13" t="s">
         <v>55</v>
       </c>
       <c r="D55" s="8"/>
@@ -1279,10 +1282,12 @@
       <c r="B60" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C60" s="10" t="s">
+      <c r="C60" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="D60" s="8"/>
+      <c r="D60" s="8" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="61" spans="2:4">
       <c r="B61" s="11" t="s">
@@ -1306,7 +1311,7 @@
       <c r="B63" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C63" s="10" t="s">
+      <c r="C63" s="13" t="s">
         <v>55</v>
       </c>
       <c r="D63" s="8"/>
@@ -1333,7 +1338,7 @@
       <c r="B66" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C66" s="10" t="s">
+      <c r="C66" s="13" t="s">
         <v>55</v>
       </c>
       <c r="D66" s="8"/>
@@ -1360,7 +1365,7 @@
       <c r="B69" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="C69" s="10" t="s">
+      <c r="C69" s="13" t="s">
         <v>55</v>
       </c>
       <c r="D69" s="8"/>
@@ -1396,7 +1401,7 @@
       <c r="B73" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="C73" s="10" t="s">
+      <c r="C73" s="13" t="s">
         <v>55</v>
       </c>
       <c r="D73" s="8"/>
